--- a/questions/2016/8b_ak.xlsx
+++ b/questions/2016/8b_ak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4acfe467ecdc9ea6/Document/6th Form/pi/NCC_2018/questions/2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koji\OneDrive\Document\6th Form\pi\NCC_2018\questions\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{3577C563-DC69-48D6-ADA4-D2E3ADA7D9CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7617E3C1-F745-4F56-AC03-62064F99EE23}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{3577C563-DC69-48D6-ADA4-D2E3ADA7D9CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{DFA1851C-104F-4B6A-BE23-2D468E256CAA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8080" xr2:uid="{B3B5913D-D0F6-455E-A523-D7347F9AAFE5}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,16 +563,16 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="26" width="3.81640625" customWidth="1"/>
     <col min="27" max="27" width="2.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" ht="21">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -725,8 +732,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="21">
+      <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -753,7 +760,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="21">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -833,7 +840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" ht="21">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
